--- a/Datasets/Demo/Demo-source.xlsx
+++ b/Datasets/Demo/Demo-source.xlsx
@@ -292,7 +292,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -305,15 +305,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -723,7 +719,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="S12" activeCellId="0" sqref="S12"/>
+      <selection pane="bottomLeft" activeCell="T10" activeCellId="0" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -854,199 +850,199 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3" s="2" t="n">
         <v>15301591</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3" s="2" t="n">
         <v>9783981926354</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="4" t="n">
+      <c r="R3" s="3" t="n">
         <v>44228</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="N4" s="2" t="n">
         <v>9781450357555</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="N5" s="2" t="n">
         <v>9783030859015</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="2" t="n">
         <v>2019</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="J6" s="2" t="n">
         <v>301</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="M6" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="N6" s="2" t="n">
         <v>9781510629998</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1509,7 +1505,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:X542"/>
-  <conditionalFormatting sqref="S7:S542 S1:S2">
+  <conditionalFormatting sqref="S1:S542">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Accepted" dxfId="4">
       <formula>NOT(ISERROR(SEARCH("Accepted",S1)))</formula>
     </cfRule>
@@ -1544,38 +1540,30 @@
       <formula>LEFT(V1,LEN("Found"))="Found"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S6">
-    <cfRule type="containsText" priority="11" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Accepted" dxfId="8">
-      <formula>NOT(ISERROR(SEARCH("Accepted",S3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="12" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Rejected" dxfId="7">
-      <formula>NOT(ISERROR(SEARCH("Rejected",S3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T3:U3 T4:T6 U5:U6">
-    <cfRule type="beginsWith" priority="13" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Accepted" dxfId="6">
+    <cfRule type="beginsWith" priority="11" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Accepted" dxfId="6">
       <formula>LEFT(T3,LEN("Accepted"))="Accepted"</formula>
     </cfRule>
-    <cfRule type="beginsWith" priority="14" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Rejected" dxfId="5">
+    <cfRule type="beginsWith" priority="12" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Rejected" dxfId="5">
       <formula>LEFT(T3,LEN("Rejected"))="Rejected"</formula>
     </cfRule>
-    <cfRule type="beginsWith" priority="15" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Similar Works" dxfId="4">
+    <cfRule type="beginsWith" priority="13" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Similar Works" dxfId="4">
       <formula>LEFT(T3,LEN("Similar Works"))="Similar Works"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U6">
-    <cfRule type="beginsWith" priority="16" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Accepted" dxfId="13">
+    <cfRule type="beginsWith" priority="14" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Accepted" dxfId="13">
       <formula>LEFT(U3,LEN("Accepted"))="Accepted"</formula>
     </cfRule>
-    <cfRule type="beginsWith" priority="17" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Rejected" dxfId="14">
+    <cfRule type="beginsWith" priority="15" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Rejected" dxfId="14">
       <formula>LEFT(U3,LEN("Rejected"))="Rejected"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V6">
-    <cfRule type="beginsWith" priority="18" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="None" dxfId="15">
+    <cfRule type="beginsWith" priority="16" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="None" dxfId="15">
       <formula>LEFT(V3,LEN("None"))="None"</formula>
     </cfRule>
-    <cfRule type="beginsWith" priority="19" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Found" dxfId="16">
+    <cfRule type="beginsWith" priority="17" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="Found" dxfId="16">
       <formula>LEFT(V3,LEN("Found"))="Found"</formula>
     </cfRule>
   </conditionalFormatting>
